--- a/results/mp/logistic/corona/confidence/210/stop-words-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,9 +46,6 @@
     <t>sc</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -61,12 +58,12 @@
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
@@ -76,70 +73,70 @@
     <t>hand</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>good</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>fresh</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>fresh</t>
+    <t>better</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>care</t>
   </si>
   <si>
     <t>share</t>
-  </si>
-  <si>
-    <t>care</t>
   </si>
   <si>
     <t>increase</t>
@@ -508,10 +505,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -569,13 +566,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7636986301369864</v>
+        <v>0.7328767123287672</v>
       </c>
       <c r="C3">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D3">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -587,19 +584,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K3">
-        <v>0.9083333333333333</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L3">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="M3">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -611,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -619,13 +616,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4444444444444444</v>
+        <v>0.4232804232804233</v>
       </c>
       <c r="C4">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D4">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -637,19 +634,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4">
-        <v>0.8983050847457628</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L4">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="M4">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -661,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -669,13 +666,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.423728813559322</v>
+        <v>0.3527131782945737</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>182</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>182</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -687,19 +684,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>34</v>
+        <v>334</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5">
-        <v>0.8913043478260869</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -711,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -719,13 +716,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3546511627906977</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="C6">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -737,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>333</v>
+        <v>120</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -761,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -769,87 +766,63 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2080536912751678</v>
+        <v>0.009035172636334301</v>
       </c>
       <c r="C7">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>118</v>
+        <v>3071</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>0.7989556135770235</v>
+      </c>
+      <c r="L7">
+        <v>306</v>
+      </c>
+      <c r="M7">
+        <v>306</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="J8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K7">
-        <v>0.8511749347258486</v>
-      </c>
-      <c r="L7">
-        <v>326</v>
-      </c>
-      <c r="M7">
-        <v>326</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.008064516129032258</v>
-      </c>
-      <c r="C8">
-        <v>25</v>
-      </c>
-      <c r="D8">
-        <v>32</v>
-      </c>
-      <c r="E8">
-        <v>0.22</v>
-      </c>
-      <c r="F8">
-        <v>0.78</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>3075</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="K8">
-        <v>0.8301886792452831</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L8">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="M8">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -861,21 +834,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K9">
-        <v>0.7931034482758621</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L9">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="M9">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -887,21 +860,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K10">
-        <v>0.7887323943661971</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L10">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="M10">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -913,21 +886,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K11">
-        <v>0.7777777777777778</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L11">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="M11">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -939,21 +912,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K12">
-        <v>0.7734375</v>
+        <v>0.78125</v>
       </c>
       <c r="L12">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M12">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -965,21 +938,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K13">
-        <v>0.7682926829268293</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L13">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="M13">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -991,21 +964,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>0.7625</v>
+        <v>0.75625</v>
       </c>
       <c r="L14">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M14">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1017,21 +990,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15">
+        <v>0.75</v>
+      </c>
+      <c r="L15">
         <v>27</v>
       </c>
-      <c r="K15">
-        <v>0.7575757575757576</v>
-      </c>
-      <c r="L15">
-        <v>25</v>
-      </c>
       <c r="M15">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1043,21 +1016,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K16">
-        <v>0.75</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L16">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M16">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1069,21 +1042,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L17">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="M17">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1095,21 +1068,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K18">
-        <v>0.7021276595744681</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L18">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="M18">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1121,21 +1094,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19">
+        <v>0.6595744680851063</v>
+      </c>
+      <c r="L19">
         <v>31</v>
       </c>
-      <c r="K19">
-        <v>0.6976744186046512</v>
-      </c>
-      <c r="L19">
-        <v>30</v>
-      </c>
       <c r="M19">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1147,21 +1120,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20">
+        <v>0.64</v>
+      </c>
+      <c r="L20">
         <v>32</v>
       </c>
-      <c r="K20">
-        <v>0.6825396825396826</v>
-      </c>
-      <c r="L20">
-        <v>43</v>
-      </c>
       <c r="M20">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1173,21 +1146,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K21">
-        <v>0.65</v>
+        <v>0.6264705882352941</v>
       </c>
       <c r="L21">
-        <v>26</v>
+        <v>213</v>
       </c>
       <c r="M21">
-        <v>26</v>
+        <v>213</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1199,21 +1172,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K22">
-        <v>0.6264705882352941</v>
+        <v>0.625</v>
       </c>
       <c r="L22">
-        <v>213</v>
+        <v>25</v>
       </c>
       <c r="M22">
-        <v>213</v>
+        <v>25</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1225,21 +1198,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>127</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K23">
-        <v>0.6</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="L23">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="M23">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1251,21 +1224,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K24">
-        <v>0.5830508474576271</v>
+        <v>0.5815899581589958</v>
       </c>
       <c r="L24">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="M24">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1277,21 +1250,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>123</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K25">
-        <v>0.58</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L25">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="M25">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1303,21 +1276,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K26">
-        <v>0.5690376569037657</v>
+        <v>0.5627118644067797</v>
       </c>
       <c r="L26">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="M26">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1329,21 +1302,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>103</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K27">
-        <v>0.5531914893617021</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L27">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="M27">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1355,21 +1328,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>0.5142857142857142</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="L28">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="M28">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1381,21 +1354,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K29">
-        <v>0.4719101123595505</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="L29">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="M29">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1407,12 +1380,12 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K30">
         <v>0.3461538461538461</v>
